--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3734,6 +3734,402 @@
       </c>
       <c r="D183" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>4</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +4143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6529,6 +6925,330 @@
       </c>
       <c r="D154" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>4</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6542,7 +7262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9918,6 +10638,294 @@
       </c>
       <c r="D187" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>3</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>2</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9931,7 +10939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15035,6 +16043,366 @@
       </c>
       <c r="D283" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>2</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>2</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>2</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>6</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -15048,7 +16416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18478,6 +19846,474 @@
       </c>
       <c r="D190" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>3</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>4</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -18491,7 +20327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21905,6 +23741,312 @@
         <v>3</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>4</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4130,6 +4130,240 @@
       </c>
       <c r="D205" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>3</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7249,6 +7483,168 @@
       </c>
       <c r="D172" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7262,7 +7658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10926,6 +11322,222 @@
       </c>
       <c r="D203" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10939,7 +11551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16403,6 +17015,546 @@
       </c>
       <c r="D303" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>3</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>2</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>3</v>
+      </c>
+      <c r="D310" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>2</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>3</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>3</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>2</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>2</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>4</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>2</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>2</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16416,7 +17568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20314,6 +21466,186 @@
       </c>
       <c r="D216" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20327,7 +21659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24047,6 +25379,258 @@
         <v>0</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>3</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>4</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>3</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>4</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>2</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>4</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4364,6 +4364,186 @@
       </c>
       <c r="D218" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>4</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4377,7 +4557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7645,6 +7825,168 @@
       </c>
       <c r="D181" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7658,7 +8000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11537,6 +11879,24 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11551,7 +11911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D333"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17554,6 +17914,186 @@
         <v>0</v>
       </c>
       <c r="D333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>2</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>2</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>2</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>3</v>
+      </c>
+      <c r="D343" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17568,7 +18108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21615,16 +22155,16 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -21633,19 +22173,199 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>4</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>4</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
           <t>Cagliari</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>1</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1</v>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -21659,7 +22379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25631,6 +26351,204 @@
         <v>1</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>3</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4544,6 +4544,96 @@
       </c>
       <c r="D228" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>4</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4557,7 +4647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7956,37 +8046,163 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>VfL Wolfsburg</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Furth</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
           <t>Bayer Leverkusen</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>2</v>
-      </c>
-      <c r="D190" t="n">
-        <v>5</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>4</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11898,6 +12114,258 @@
       </c>
       <c r="D216" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>3</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11911,7 +12379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18095,6 +18563,402 @@
       </c>
       <c r="D343" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>3</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>2</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>3</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>3</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>2</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>2</v>
+      </c>
+      <c r="D350" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>4</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>2</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>3</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>2</v>
+      </c>
+      <c r="D356" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>2</v>
+      </c>
+      <c r="D358" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>2</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>4</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>3</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18108,7 +18972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22366,6 +23230,60 @@
       </c>
       <c r="D236" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>3</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22379,7 +23297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26549,6 +27467,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4634,6 +4634,114 @@
       </c>
       <c r="D233" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>2</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4647,7 +4755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8203,6 +8311,42 @@
       </c>
       <c r="D197" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8216,7 +8360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12366,6 +12510,96 @@
       </c>
       <c r="D230" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12379,7 +12613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D365"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18958,6 +19192,96 @@
         <v>0</v>
       </c>
       <c r="D365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>3</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>2</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>2</v>
+      </c>
+      <c r="D370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18972,7 +19296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23284,6 +23608,132 @@
       </c>
       <c r="D239" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>4</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -23297,7 +23747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27521,6 +27971,132 @@
         <v>1</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4742,6 +4742,366 @@
       </c>
       <c r="D239" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>3</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>4</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>2</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>4</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>5</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +5115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8347,6 +8707,330 @@
       </c>
       <c r="D199" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>3</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>3</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>3</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8360,7 +9044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12600,6 +13284,420 @@
       </c>
       <c r="D235" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -12613,7 +13711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19282,6 +20380,636 @@
         <v>2</v>
       </c>
       <c r="D370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>2</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>4</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>2</v>
+      </c>
+      <c r="D375" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>2</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>2</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>2</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>2</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>2</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>2</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>2</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>2</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>2</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>4</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>3</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>1</v>
+      </c>
+      <c r="D405" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19296,7 +21024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23734,6 +25462,366 @@
       </c>
       <c r="D246" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>2</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>2</v>
+      </c>
+      <c r="D260" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>3</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23747,7 +25835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28097,6 +30185,366 @@
         <v>0</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>3</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>2</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>4</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>3</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5102,6 +5102,186 @@
       </c>
       <c r="D259" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>4</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>3</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>3</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5115,7 +5295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9030,6 +9210,150 @@
         <v>0</v>
       </c>
       <c r="D217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9044,7 +9368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13698,6 +14022,186 @@
       </c>
       <c r="D258" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>2</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>4</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>5</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13711,7 +14215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21010,6 +21514,204 @@
         <v>1</v>
       </c>
       <c r="D405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>1</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>3</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>3</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>2</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>2</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>2</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>1</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>2</v>
+      </c>
+      <c r="D416" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21024,7 +21726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25821,6 +26523,186 @@
         <v>4</v>
       </c>
       <c r="D266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>5</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25835,7 +26717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30545,6 +31427,186 @@
         <v>2</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>4</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5281,6 +5281,24 @@
         <v>3</v>
       </c>
       <c r="D269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9368,7 +9386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14202,6 +14220,78 @@
       </c>
       <c r="D268" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>4</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -14215,7 +14305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D416"/>
+  <dimension ref="A1:D424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21713,6 +21803,150 @@
       </c>
       <c r="D416" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>1</v>
+      </c>
+      <c r="D418" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>4</v>
+      </c>
+      <c r="D419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>1</v>
+      </c>
+      <c r="D423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>2</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26717,7 +26951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31607,6 +31841,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5300,6 +5300,348 @@
       </c>
       <c r="D270" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>3</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>2</v>
+      </c>
+      <c r="D284" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9386,7 +9728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14292,6 +14634,312 @@
       </c>
       <c r="D272" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>3</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>2</v>
+      </c>
+      <c r="D286" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>3</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>2</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14305,7 +14953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21947,6 +22595,366 @@
       </c>
       <c r="D424" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>1</v>
+      </c>
+      <c r="D425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>3</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>2</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>2</v>
+      </c>
+      <c r="D429" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>3</v>
+      </c>
+      <c r="D430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>2</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>4</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>2</v>
+      </c>
+      <c r="D434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>2</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>1</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>1</v>
+      </c>
+      <c r="D439" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+      <c r="D440" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>2</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>2</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>1</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>1</v>
+      </c>
+      <c r="D444" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -21960,7 +22968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26938,6 +27946,366 @@
       </c>
       <c r="D276" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>2</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>2</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>4</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>3</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>2</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26951,7 +28319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31859,6 +33227,348 @@
         <v>0</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>3</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>3</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>2</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>6</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>3</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5641,6 +5641,186 @@
         <v>1</v>
       </c>
       <c r="D289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>4</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>2</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>4</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5655,7 +5835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9715,6 +9895,474 @@
       </c>
       <c r="D225" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>4</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>4</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>2</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9728,7 +10376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14940,6 +15588,186 @@
       </c>
       <c r="D289" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>5</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14953,7 +15781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22955,6 +23783,222 @@
       </c>
       <c r="D444" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>1</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0</v>
+      </c>
+      <c r="D447" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0</v>
+      </c>
+      <c r="D448" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>2</v>
+      </c>
+      <c r="D449" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>1</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>2</v>
+      </c>
+      <c r="D451" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0</v>
+      </c>
+      <c r="D452" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>3</v>
+      </c>
+      <c r="D453" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>1</v>
+      </c>
+      <c r="D454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>1</v>
+      </c>
+      <c r="D455" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>1</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22968,7 +24012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D296"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28306,6 +29350,186 @@
       </c>
       <c r="D296" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>5</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28319,7 +29543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D291"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33569,6 +34793,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>5</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>2</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5821,6 +5821,168 @@
         <v>1</v>
       </c>
       <c r="D299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>4</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>2</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5835,7 +5997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10362,6 +10524,186 @@
         <v>3</v>
       </c>
       <c r="D251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>4</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>3</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>3</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10376,7 +10718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15767,6 +16109,204 @@
         <v>3</v>
       </c>
       <c r="D299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>3</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>2</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>2</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>2</v>
+      </c>
+      <c r="D310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15781,7 +16321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D456"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23999,6 +24539,348 @@
       </c>
       <c r="D456" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>2</v>
+      </c>
+      <c r="D457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>1</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>1</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>2</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>2</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+      <c r="D465" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>2</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>1</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>2</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>2</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>4</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>1</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>1</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>1</v>
+      </c>
+      <c r="D475" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -24012,7 +24894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D306"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29530,6 +30412,168 @@
       </c>
       <c r="D306" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>2</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>2</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -29543,7 +30587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34973,6 +36017,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>2</v>
+      </c>
+      <c r="D304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>3</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>3</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D293"/>
+  <dimension ref="A1:D328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5714,6 +5714,636 @@
       </c>
       <c r="D293" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>4</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>4</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>2</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>2</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>2</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>2</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>2</v>
+      </c>
+      <c r="D327" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5727,7 +6357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10219,6 +10849,384 @@
       </c>
       <c r="D249" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>4</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>3</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>3</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10232,7 +11240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D296"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15569,6 +16577,474 @@
         <v>2</v>
       </c>
       <c r="D296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>5</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>3</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>2</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>2</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>2</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>2</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>4</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>3</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>2</v>
+      </c>
+      <c r="D322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15583,7 +17059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23783,6 +25259,762 @@
       </c>
       <c r="D455" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>1</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>2</v>
+      </c>
+      <c r="D457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>1</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>1</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>2</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>2</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+      <c r="D465" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>2</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>1</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>2</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>2</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>4</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>1</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>1</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>1</v>
+      </c>
+      <c r="D475" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>1</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>1</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>2</v>
+      </c>
+      <c r="D479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>2</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>2</v>
+      </c>
+      <c r="D482" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>1</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>4</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>1</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>4</v>
+      </c>
+      <c r="D486" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>1</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>2</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0</v>
+      </c>
+      <c r="D489" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>6</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0</v>
+      </c>
+      <c r="D494" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>3</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>2</v>
+      </c>
+      <c r="D496" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>2</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23796,7 +26028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29188,6 +31420,510 @@
       </c>
       <c r="D299" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>5</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>2</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>2</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>2</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>2</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>4</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -29201,7 +31937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D293"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34487,6 +37223,690 @@
         <v>1</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>5</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>2</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>2</v>
+      </c>
+      <c r="D304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>3</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>3</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>2</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>2</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>2</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>2</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>3</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>2</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>2</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D328"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6344,6 +6344,114 @@
       </c>
       <c r="D328" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>2</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>4</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>2</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6357,7 +6465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11353,6 +11461,168 @@
       </c>
       <c r="D277" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>2</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>3</v>
+      </c>
+      <c r="D283" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>3</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>3</v>
+      </c>
+      <c r="D286" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11366,7 +11636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17262,6 +17532,222 @@
       </c>
       <c r="D327" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>2</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>2</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -17275,7 +17761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D508"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26429,6 +26915,294 @@
       </c>
       <c r="D508" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>1</v>
+      </c>
+      <c r="D509" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>3</v>
+      </c>
+      <c r="D510" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>0</v>
+      </c>
+      <c r="D511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>0</v>
+      </c>
+      <c r="D512" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>2</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>1</v>
+      </c>
+      <c r="D514" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>1</v>
+      </c>
+      <c r="D515" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>0</v>
+      </c>
+      <c r="D516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>5</v>
+      </c>
+      <c r="D517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>3</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>3</v>
+      </c>
+      <c r="D519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>1</v>
+      </c>
+      <c r="D520" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>1</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>5</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>0</v>
+      </c>
+      <c r="D523" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>0</v>
+      </c>
+      <c r="D524" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -26442,7 +27216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32410,6 +33184,240 @@
       </c>
       <c r="D331" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>3</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>2</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>2</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>2</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>4</v>
+      </c>
+      <c r="D339" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>6</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>3</v>
+      </c>
+      <c r="D344" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -32423,7 +33431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38447,6 +39455,186 @@
         <v>2</v>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Marsylia</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Troyes</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>5</v>
+      </c>
+      <c r="D338" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>2</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>5</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>3</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>2</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>St. Etienne</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>2</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6451,6 +6451,366 @@
         <v>2</v>
       </c>
       <c r="D334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>3</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>2</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>6</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>3</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>2</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>2</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>3</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Real Madryt</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Atl. Madryt</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>2</v>
+      </c>
+      <c r="D354" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6465,7 +6825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11623,6 +11983,348 @@
       </c>
       <c r="D286" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>2</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>2</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>4</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>2</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Bayern Monachium</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. FC Koeln</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>2</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>B. Moenchengladbach</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>5</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Furth</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>2</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>2</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>2</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>RB Lipsk</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11636,7 +12338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D339"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17748,6 +18450,366 @@
       </c>
       <c r="D339" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>3</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>5</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>2</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>3</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>3</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>2</v>
+      </c>
+      <c r="D351" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Norwich</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>2</v>
+      </c>
+      <c r="D353" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+      <c r="D354" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>2</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -17761,7 +18823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27203,6 +28265,330 @@
       </c>
       <c r="D524" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>7</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>1</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>West Brom</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>4</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>QPR</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>0</v>
+      </c>
+      <c r="D528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>1</v>
+      </c>
+      <c r="D529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>4</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Middlesbrough</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>4</v>
+      </c>
+      <c r="D531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Peterborough</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>5</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>1</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>1</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Bristol City</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>2</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Derby</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>0</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>1</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D538" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>1</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>1</v>
+      </c>
+      <c r="D540" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Huddersfield</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D542" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
